--- a/Data_Files/BRAVE_RNASeq_Data_Dictionary.xlsx
+++ b/Data_Files/BRAVE_RNASeq_Data_Dictionary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Research\BRAVE_Kids\RNA_Sequencing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F886DF-AE04-48DE-86D2-858691C0CF50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B4E001-D1C0-44F0-B6EB-7B39DD7309F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
   <si>
     <t>age</t>
   </si>
@@ -37,9 +37,6 @@
     <t>corona</t>
   </si>
   <si>
-    <t>symptoms_any</t>
-  </si>
-  <si>
     <t>fever</t>
   </si>
   <si>
@@ -85,21 +82,12 @@
     <t>Sample RNA integrity number</t>
   </si>
   <si>
-    <t>F = female, M= male</t>
-  </si>
-  <si>
     <t>hispanic</t>
   </si>
   <si>
-    <t>History of asthma (Y/N)</t>
-  </si>
-  <si>
     <t>Hispanic ethnicity (Yes/No)</t>
   </si>
   <si>
-    <t>BMI &gt;95% for age (Y/N)</t>
-  </si>
-  <si>
     <t>clinical_pcr</t>
   </si>
   <si>
@@ -127,9 +115,6 @@
     <t>Timing of sample collection relative to SARS-CoV-2 infection or exposure (acute for all samples in this analysis)</t>
   </si>
   <si>
-    <t>np = nasopharyngeal, pax = blood</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -145,9 +130,6 @@
     <t>Age category (0-5 years, 6-13 years, 14-20 years, Adult)</t>
   </si>
   <si>
-    <t>Data on race and ethnicity</t>
-  </si>
-  <si>
     <t>group</t>
   </si>
   <si>
@@ -181,12 +163,6 @@
     <t>timing_dx</t>
   </si>
   <si>
-    <t>comorbidity</t>
-  </si>
-  <si>
-    <t>Presence of any identified comorbid medical condition (Y/N)</t>
-  </si>
-  <si>
     <t>Did the subject require hospitalization? (Y/N)</t>
   </si>
   <si>
@@ -254,6 +230,102 @@
   </si>
   <si>
     <t>Presence of rhinorrhea (Y/N)</t>
+  </si>
+  <si>
+    <t>np = nasopharyngeal, pax = blood, nasal = nasal</t>
+  </si>
+  <si>
+    <t>F = female, M = male</t>
+  </si>
+  <si>
+    <t>Race and ethncity data</t>
+  </si>
+  <si>
+    <t>symptoms</t>
+  </si>
+  <si>
+    <t>BMI &gt;95% for age (Y/N); missing for children &lt;2 years of age</t>
+  </si>
+  <si>
+    <t>History of physician-diagnosed asthma (Y/N)</t>
+  </si>
+  <si>
+    <t>sob</t>
+  </si>
+  <si>
+    <t>sorethroat</t>
+  </si>
+  <si>
+    <t>headache</t>
+  </si>
+  <si>
+    <t>abd_pain</t>
+  </si>
+  <si>
+    <t>diarrhea</t>
+  </si>
+  <si>
+    <t>anosmia</t>
+  </si>
+  <si>
+    <t>dysgeusia</t>
+  </si>
+  <si>
+    <t>chestpain</t>
+  </si>
+  <si>
+    <t>myalgias</t>
+  </si>
+  <si>
+    <t>joint_pain</t>
+  </si>
+  <si>
+    <t>Presence of shortness of breath (Y/N)</t>
+  </si>
+  <si>
+    <t>Presence of sore throat (Y/N)</t>
+  </si>
+  <si>
+    <t>Presence of headache (Y/N)</t>
+  </si>
+  <si>
+    <t>Presence of abdominal pain (Y/N)</t>
+  </si>
+  <si>
+    <t>Presence of diarrhea (Y/N)</t>
+  </si>
+  <si>
+    <t>Loss of smell (Y/N)</t>
+  </si>
+  <si>
+    <t>Loss of taste (Y/N)</t>
+  </si>
+  <si>
+    <t>Presence of chest pain (Y/N)</t>
+  </si>
+  <si>
+    <t>Presence of myalgias (Y/N)</t>
+  </si>
+  <si>
+    <t>Presence of joint pains (Y/N)</t>
+  </si>
+  <si>
+    <t>neut_ID50_2mo</t>
+  </si>
+  <si>
+    <t>Neutralizing activity of serum antibodies to SARS-CoV-2 (D614G) at 2 months after acute infection</t>
+  </si>
+  <si>
+    <t>comorbidity_oth</t>
+  </si>
+  <si>
+    <t>Presence of a comorbid medical condition other than obesity (Y/N)</t>
+  </si>
+  <si>
+    <t>sars2_variant</t>
+  </si>
+  <si>
+    <t>SARS-CoV-2 lineage based on genomic seqencing</t>
   </si>
 </sst>
 </file>
@@ -758,10 +830,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1083,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,82 +1170,82 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1180,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1188,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1196,7 +1269,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1204,15 +1277,15 @@
         <v>3</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1220,175 +1293,175 @@
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1396,15 +1469,111 @@
         <v>76</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Data_Files/BRAVE_RNASeq_Data_Dictionary.xlsx
+++ b/Data_Files/BRAVE_RNASeq_Data_Dictionary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Research\BRAVE_Kids\RNA_Sequencing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B4E001-D1C0-44F0-B6EB-7B39DD7309F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F872A8A-4548-4275-9958-11097509B85B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>age</t>
   </si>
@@ -326,6 +326,12 @@
   </si>
   <si>
     <t>SARS-CoV-2 lineage based on genomic seqencing</t>
+  </si>
+  <si>
+    <t>timing_neut_dx</t>
+  </si>
+  <si>
+    <t>Timing of convalescent sample relative to SARS-CoV-2 diagnosis in days (NA unless infected and 2-month serum data available)</t>
   </si>
 </sst>
 </file>
@@ -1156,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1576,6 +1582,14 @@
         <v>97</v>
       </c>
     </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
